--- a/06.adhoc.requests/18.substations/Subcontractor_Details_substations_earth.xlsx
+++ b/06.adhoc.requests/18.substations/Subcontractor_Details_substations_earth.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/06.adhoc.requests/18.substations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07A0E57-E3B3-415F-A16B-270FEC19A734}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AF$29</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,10 +27,344 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="107">
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>sc_no</t>
+  </si>
+  <si>
+    <t>sc_manual</t>
+  </si>
+  <si>
+    <t>proj_name</t>
+  </si>
+  <si>
+    <t>cost_center</t>
+  </si>
+  <si>
+    <t>Project MANAGER</t>
+  </si>
+  <si>
+    <t>Project Name Control</t>
+  </si>
+  <si>
+    <t>supplier_name</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>supplier_no</t>
+  </si>
+  <si>
+    <t>work_package</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Pay Item No</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>TAX Rate</t>
+  </si>
+  <si>
+    <t>Tax Amount</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Expenditure Type</t>
+  </si>
+  <si>
+    <t>Last W/C</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>TPD-URSC-1405-C-001-2016</t>
+  </si>
+  <si>
+    <t>Mostasmereen-0040</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>Mohamed Abdelfath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Mostathmreen GIS Substation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مكتب التعمير للمقاولات - صبري رشاد </t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>اعمال الحفروأعمال ترابيه</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>بالمتر المكعب اعمال حفر شامل نقل المخلفات</t>
+  </si>
+  <si>
+    <t>Al Mostathmreen GIS Substation</t>
+  </si>
+  <si>
+    <t>Subcontractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Square Meter </t>
+  </si>
+  <si>
+    <t>باليومية ايجار عربة قلاب</t>
+  </si>
+  <si>
+    <t>SE-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily </t>
+  </si>
+  <si>
+    <t>باليومية ايجار لودر 36</t>
+  </si>
+  <si>
+    <t>SE-09</t>
+  </si>
+  <si>
+    <t>بالمتر المكعب اعمال توريد سن 6</t>
+  </si>
+  <si>
+    <t>بالنقله ايجار عربة مياه 16 م3</t>
+  </si>
+  <si>
+    <t>SE-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each </t>
+  </si>
+  <si>
+    <t>بالمتر المكعب اعمال توريد سن 2</t>
+  </si>
+  <si>
+    <t>بالمتر المكعب اعمال توريد وتشغيل رمال نظيفة موردة من خارج الموقع لاعمال الاحلال وذلك على طبقات مع الدمك بسمك 25 سم لكل طبقة طبقاً للمواصفات</t>
+  </si>
+  <si>
+    <t>ملحق 1 لأعمال الحفروأعمال ترابيه</t>
+  </si>
+  <si>
+    <t>بالمتر المكعب اعمال توريد و تشغيل سن 2 , 3  مورده من الخارج لاعمال تربة احلال وذلك علي طبقات بسمك 50 سم و البند شامل الدمك و الغمر بالمياه و كذلك اختبار التحميل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubic Meter </t>
+  </si>
+  <si>
+    <t>بالمتر المكعب لاعمال حفر كل انواع التربه (عدا الصخريه) و بالمنسوب المطلوب و السعر شامل سند جوانب الحفر او عمل الميول اللازمه و نزح المياه ان وجدت مع غمر و دمك قاع الحفر و السعر يشمل نقل ناتج الحفر الي المقالب العموميه و طبقا للمواصفات</t>
+  </si>
+  <si>
+    <t>تنفيذ اعمال حفر و اعمال ترابية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبد الحكيم سيد احمد قطب </t>
+  </si>
+  <si>
+    <t>تكسير وتحميل في تربة صخرية مع نقل ناتج التكسير للمقالب المعتمدة خارج الموقع وفرد ناتج التكسير وتسويته بالمقالب المعتمدة</t>
+  </si>
+  <si>
+    <t>Beni Suef Substation R61</t>
+  </si>
+  <si>
+    <t>قطع و تحميل في تربة غير صخرية (مفككة) مع تقل ناتج الحفر للاماكن المحددة</t>
+  </si>
+  <si>
+    <t>تنفيذ اعمال حفر واعمال ترابية</t>
+  </si>
+  <si>
+    <t>French Fund Substations (Bani-Swif)-0061</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>French Fund Substations (Bani-swif)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علي نور الدين - الشنوبي </t>
+  </si>
+  <si>
+    <t>ملحق 1 تنفيذ اعمال حفر و اعمال ترابية</t>
+  </si>
+  <si>
+    <t>تكسير و تحميل في تربة صخرية (حتى منسوب 96.00) مع نقل ناتج التكسير للمقالب المعتمدة خارج الموقع و فرد ناتج التكسير و تسويته بالمقالب المعتمدة</t>
+  </si>
+  <si>
+    <t>للتكسير وتحميل في تربة صخرية في حالة الترنشات ذات عرض يقل عن 5 متر ، من منسوب 96 حتى منسوب 94 مع نقل ناتج التكسير للمقالب المعتمدة خارج الموقع وفرد ناتج التكسير وتسويته بالمقالب المعتمدة</t>
+  </si>
+  <si>
+    <t>تكسير وتحميل في تربة صخرية في حالة الترنشات ذات عرض يقل عن 5 متر، من منسوب 94 حتى منسوب 92 مع نقل ناتج التكسير للمقالب المعتمدة خارج الموقع وفرد ناتج التكسير وتسويته بالمقالب المعتمدة.</t>
+  </si>
+  <si>
+    <t>قطع و تحميل في تربة غير صخرية مفككة مع نقل ناتج الحفر للاماكن المحددة بمعرفة المشروع و فرد ناتج الحفر وتسويته</t>
+  </si>
+  <si>
+    <t>OPR2-URSC-1405-3-C-001-2017</t>
+  </si>
+  <si>
+    <t>French Fund Substations ( Ismailia )-0052</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismalia Substation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الروافعى للمقاولات العمومية </t>
+  </si>
+  <si>
+    <t>اعمال حفر</t>
+  </si>
+  <si>
+    <t>بالمتر المكعب حفر في جميع انواع التربه عدا التربه الصخريه و لاي عمق مع تحميل نقل ناتج الحفر للمقالب المحددة بالمنطقه بمعرفه مدير المشروع</t>
+  </si>
+  <si>
+    <t>Ismailiya East Substation</t>
+  </si>
+  <si>
+    <t>SUB-Civil Works</t>
+  </si>
+  <si>
+    <t>OPR2-URSC-1405-3-C-004-2017</t>
+  </si>
+  <si>
+    <t>اعامل حفر</t>
+  </si>
+  <si>
+    <t>حفر اعمال السور في جميع انواع التربه مع نقل ناتج الحفر للاماكن المحددة بمعرفة المشروع وفرد ناتج الحفر وتسويته</t>
+  </si>
+  <si>
+    <t>قطع وتحميل فى تربة غير صخرية (مفككة) مع نقل ناتج الحفر للاماكن المحددة بمعرفة المشروع وفرد ناتج الحفر وتسويته</t>
+  </si>
+  <si>
+    <t>علاوة حفر على الترنشات ذات عرض اقل من 5م من منسوب 96-94</t>
+  </si>
+  <si>
+    <t>علاوة حفر على الترنشات ذات عرض اقل من 5م من منسوب 94-92</t>
+  </si>
+  <si>
+    <t>تكسير وتحميل فى تربة صخرية مع نقل ناتج التكسير للمقالب المعتمدة خارج الموقع وفرد ناتج التكسير وتسويته بالمقالب المعتمدة</t>
+  </si>
+  <si>
+    <t>TPD-URSC-1405-1-C-003-2017</t>
+  </si>
+  <si>
+    <t>Benisueif Pwr-Bani Suef</t>
+  </si>
+  <si>
+    <t>Suef</t>
+  </si>
+  <si>
+    <t>Unknown Project MANAGER</t>
+  </si>
+  <si>
+    <t>Unknown Project Name Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احمد ابو زيد قرنى للمقاولات و التوريدات </t>
+  </si>
+  <si>
+    <t>OPR2-URSC-1405-2-C-002-2017</t>
+  </si>
+  <si>
+    <t>Amadid Substataion-0051</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamay Elamdeed Substation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">على محمد على يوسف </t>
+  </si>
+  <si>
+    <t>حفر في جميع انواع التربه عدا التربه الصخريه و لاي عمق مع تحميل نقل ناتج الحفر للمقالب المحددة بالمنطقه بمعرفه مدير المشروع و كذلك فرش ناتج الحفر و تسويته بالمقالب المحددة</t>
+  </si>
+  <si>
+    <t>Tamey El-amdeed Substation</t>
+  </si>
+  <si>
+    <t>اعمال حفر-Add.001</t>
+  </si>
+  <si>
+    <t>علاوة حفر في جميع انواع التربه عدا التربه الصخريه و لاي عمق مع تحميل نقل ناتج الحفر للمقالب المحددة بالمنطقه بمعرفه مدير المشروع و كذلك فرش ناتج الحفر و تسويته بالمقالب المحددة</t>
+  </si>
+  <si>
+    <t>OPR2-URSC-1405-1-C-013-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سليمان سويلم محمود سلامه </t>
+  </si>
+  <si>
+    <t>بالمتر المكعب حفر في تربة صخرية و لأي عمق مع تحميل نقل ناتج الحفر للمقالب المحددة و كذلك فرش ناتج الحفر و تسويته بالمقالب المحددة سابقاُ</t>
+  </si>
+  <si>
+    <t>بالمتر المكعب علاوة حفر فى تربـة صخــرية نظيــر إنجــاز الأعمــال طبقــاٌ للبرنامج الزمنى للمشــروع</t>
+  </si>
+  <si>
+    <t>علاوة بالمتر المكعب حفر في تربة صخرية و لأي عمق مع تحميل نقل ناتج الحفر للمقالب المحددة و كذلك فرش ناتج الحفر و تسويته بالمقالب المحددة سابقاُ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +392,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +674,2377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5163</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <v>1846</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>2093000</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2">
+        <v>40000</v>
+      </c>
+      <c r="U2">
+        <v>13</v>
+      </c>
+      <c r="V2">
+        <v>520000</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2">
+        <v>20101</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5164</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>1846</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3">
+        <v>2093000</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3">
+        <v>50</v>
+      </c>
+      <c r="U3">
+        <v>700</v>
+      </c>
+      <c r="V3">
+        <v>35000</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5165</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>1846</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4">
+        <v>2093000</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4">
+        <v>180</v>
+      </c>
+      <c r="U4">
+        <v>600</v>
+      </c>
+      <c r="V4">
+        <v>108000</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5166</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>1846</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5">
+        <v>2093000</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5">
+        <v>5000</v>
+      </c>
+      <c r="U5">
+        <v>50</v>
+      </c>
+      <c r="V5">
+        <v>250000</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5">
+        <v>20103</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5167</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>1846</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6">
+        <v>2093000</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6">
+        <v>50</v>
+      </c>
+      <c r="U6">
+        <v>300</v>
+      </c>
+      <c r="V6">
+        <v>15000</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5168</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>1846</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7">
+        <v>2093000</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7">
+        <v>5000</v>
+      </c>
+      <c r="U7">
+        <v>65</v>
+      </c>
+      <c r="V7">
+        <v>325000</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7">
+        <v>20103</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5169</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1119</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>1846</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8">
+        <v>2093000</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8">
+        <v>20000</v>
+      </c>
+      <c r="U8">
+        <v>42</v>
+      </c>
+      <c r="V8">
+        <v>840000</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8">
+        <v>20103</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5170</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>1846</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9">
+        <v>1500000</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9">
+        <v>10000</v>
+      </c>
+      <c r="U9">
+        <v>90</v>
+      </c>
+      <c r="V9">
+        <v>900000</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9">
+        <v>20103</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5171</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>1846</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10">
+        <v>1500000</v>
+      </c>
+      <c r="R10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10">
+        <v>30000</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10">
+        <v>600000</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC10">
+        <v>20101</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6408</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1219</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <v>2166</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11">
+        <v>680000</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11">
+        <v>15000</v>
+      </c>
+      <c r="U11">
+        <v>36</v>
+      </c>
+      <c r="V11">
+        <v>540000</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC11">
+        <v>20103</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6409</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1219</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <v>2166</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12">
+        <v>680000</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12">
+        <v>20000</v>
+      </c>
+      <c r="U12">
+        <v>7</v>
+      </c>
+      <c r="V12">
+        <v>140000</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC12">
+        <v>20101</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13741</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>1421</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13">
+        <v>614420</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T13">
+        <v>13370</v>
+      </c>
+      <c r="U13">
+        <v>36</v>
+      </c>
+      <c r="V13">
+        <v>481320</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC13">
+        <v>20101</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13742</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>151</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>1421</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14">
+        <v>614420</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14">
+        <v>1050</v>
+      </c>
+      <c r="U14">
+        <v>38</v>
+      </c>
+      <c r="V14">
+        <v>39900</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC14">
+        <v>20101</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13743</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>1421</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15">
+        <v>614420</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15">
+        <v>580</v>
+      </c>
+      <c r="U15">
+        <v>40</v>
+      </c>
+      <c r="V15">
+        <v>23200</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15">
+        <v>20101</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13744</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>151</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>1421</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16">
+        <v>614420</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16">
+        <v>10000</v>
+      </c>
+      <c r="U16">
+        <v>7</v>
+      </c>
+      <c r="V16">
+        <v>70000</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC16">
+        <v>20101</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14830</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1545</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>3504</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17">
+        <v>185400</v>
+      </c>
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s">
+        <v>77</v>
+      </c>
+      <c r="T17">
+        <v>10300</v>
+      </c>
+      <c r="U17">
+        <v>18</v>
+      </c>
+      <c r="V17">
+        <v>185400</v>
+      </c>
+      <c r="W17">
+        <v>23487.17</v>
+      </c>
+      <c r="X17">
+        <v>422769.06</v>
+      </c>
+      <c r="Y17">
+        <v>422769.06</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC17">
+        <v>20101</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE17">
+        <v>43330</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>25338</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2060</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>2166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18">
+        <v>330500.00040000002</v>
+      </c>
+      <c r="R18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s">
+        <v>82</v>
+      </c>
+      <c r="T18">
+        <v>4500</v>
+      </c>
+      <c r="U18">
+        <v>45</v>
+      </c>
+      <c r="V18">
+        <v>202500</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC18">
+        <v>20101</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>25339</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2060</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>2166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19">
+        <v>330500.00040000002</v>
+      </c>
+      <c r="R19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" t="s">
+        <v>83</v>
+      </c>
+      <c r="T19">
+        <v>1000</v>
+      </c>
+      <c r="U19">
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <v>8000</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC19">
+        <v>20101</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>25340</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2060</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20">
+        <v>2166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20">
+        <v>330500.00040000002</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20">
+        <v>1E-4</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC20">
+        <v>20101</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>25341</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2060</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>2166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21">
+        <v>330500.00040000002</v>
+      </c>
+      <c r="R21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21">
+        <v>1E-4</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC21">
+        <v>20101</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>25342</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2060</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>2166</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22">
+        <v>330500.00040000002</v>
+      </c>
+      <c r="R22" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" t="s">
+        <v>86</v>
+      </c>
+      <c r="T22">
+        <v>3000</v>
+      </c>
+      <c r="U22">
+        <v>40</v>
+      </c>
+      <c r="V22">
+        <v>120000</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC22">
+        <v>20101</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>33797</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>236</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23">
+        <v>3095</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23">
+        <v>547000</v>
+      </c>
+      <c r="R23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s">
+        <v>60</v>
+      </c>
+      <c r="T23">
+        <v>1000</v>
+      </c>
+      <c r="U23">
+        <v>7</v>
+      </c>
+      <c r="V23">
+        <v>7000</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC23">
+        <v>20101</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>33798</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24">
+        <v>3095</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24">
+        <v>547000</v>
+      </c>
+      <c r="R24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24">
+        <v>15000</v>
+      </c>
+      <c r="U24">
+        <v>36</v>
+      </c>
+      <c r="V24">
+        <v>540000</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC24">
+        <v>20101</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>67102</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>3719</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25">
+        <v>3687</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25">
+        <v>252000</v>
+      </c>
+      <c r="R25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s">
+        <v>98</v>
+      </c>
+      <c r="T25">
+        <v>14000</v>
+      </c>
+      <c r="U25">
+        <v>18</v>
+      </c>
+      <c r="V25">
+        <v>252000</v>
+      </c>
+      <c r="W25">
+        <v>21295</v>
+      </c>
+      <c r="X25">
+        <v>383310</v>
+      </c>
+      <c r="Y25">
+        <v>383310</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC25">
+        <v>20101</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE25">
+        <v>44186</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>67103</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>3719</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26">
+        <v>3687</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26">
+        <v>24300</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26">
+        <v>9000</v>
+      </c>
+      <c r="U26">
+        <v>2.7</v>
+      </c>
+      <c r="V26">
+        <v>24300</v>
+      </c>
+      <c r="W26">
+        <v>2975</v>
+      </c>
+      <c r="X26">
+        <v>8032.5</v>
+      </c>
+      <c r="Y26">
+        <v>8032.5</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC26">
+        <v>20101</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE26">
+        <v>44186</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>75317</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4056</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27">
+        <v>3413</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27">
+        <v>508000</v>
+      </c>
+      <c r="R27" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s">
+        <v>104</v>
+      </c>
+      <c r="T27">
+        <v>10000</v>
+      </c>
+      <c r="U27">
+        <v>46</v>
+      </c>
+      <c r="V27">
+        <v>460000</v>
+      </c>
+      <c r="W27">
+        <v>20061.12</v>
+      </c>
+      <c r="X27">
+        <v>922811.52</v>
+      </c>
+      <c r="Y27">
+        <v>922811.52</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC27">
+        <v>20101</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE27">
+        <v>43737</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>75318</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>4056</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28">
+        <v>3413</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28">
+        <v>508000</v>
+      </c>
+      <c r="R28" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T28">
+        <v>8000</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>48000</v>
+      </c>
+      <c r="W28">
+        <v>8000</v>
+      </c>
+      <c r="X28">
+        <v>48000</v>
+      </c>
+      <c r="Y28">
+        <v>48000</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC28">
+        <v>20101</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE28">
+        <v>43737</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>75319</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4056</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29">
+        <v>3413</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O29">
+        <v>36000</v>
+      </c>
+      <c r="R29" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" t="s">
+        <v>106</v>
+      </c>
+      <c r="T29">
+        <v>4500</v>
+      </c>
+      <c r="U29">
+        <v>8</v>
+      </c>
+      <c r="V29">
+        <v>36000</v>
+      </c>
+      <c r="W29">
+        <v>4184.6000000000004</v>
+      </c>
+      <c r="X29">
+        <v>33476.800000000003</v>
+      </c>
+      <c r="Y29">
+        <v>33476.800000000003</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC29">
+        <v>20101</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE29">
+        <v>43737</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AF29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>